--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_16-39.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_16-39.xlsx
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>معجون اسنان فلورو بالكولا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معطر فريدا </t>
+  </si>
+  <si>
+    <t>11:0</t>
   </si>
   <si>
     <t>Thursday, 8 January, 2026 4:39 PM</t>
@@ -1653,37 +1659,63 @@
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
-      <c r="K38" s="10">
-        <v>2053.6399999999999</v>
-      </c>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-    </row>
-    <row r="39" ht="17.25" customHeight="1">
-      <c t="s" r="A39" s="11">
+      <c r="A38" s="6">
+        <v>35</v>
+      </c>
+      <c t="s" r="B38" s="7">
         <v>60</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c t="s" r="F39" s="12">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c t="s" r="H38" s="8">
         <v>61</v>
       </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="13"/>
-      <c t="s" r="I39" s="14">
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="9">
+        <v>-65</v>
+      </c>
+      <c r="M38" s="9"/>
+      <c t="s" r="N38" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="K39" s="10">
+        <v>1988.6400000000001</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="11">
         <v>62</v>
       </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c t="s" r="F40" s="12">
+        <v>63</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="13"/>
+      <c t="s" r="I40" s="14">
+        <v>64</v>
+      </c>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
+  <mergeCells count="116">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1793,10 +1825,13 @@
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:N40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
